--- a/meta/stores/SampleNoGettersStore.xlsx
+++ b/meta/stores/SampleNoGettersStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoPinia/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862FF410-5FD3-D246-9E1C-6D51AE5A70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341B4D7-026C-7240-A7A0-D7C59328F2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>パッケージ</t>
   </si>
@@ -505,38 +505,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>updateState01</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>void</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>state01 の値を更新します。</t>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">アタイヲ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">コウシｎ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>state01 の新しい値です。</t>
-    <rPh sb="8" eb="9">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">アタラシイ </t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">アタイデス。 </t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1883,8 +1852,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1933,7 +1902,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
@@ -1948,7 +1917,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="11"/>
@@ -1993,7 +1962,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="109" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="110"/>
       <c r="E10" s="111"/>
@@ -2058,7 +2027,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -2278,7 +2247,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20" t="s">
@@ -2360,7 +2329,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -2795,7 +2764,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
@@ -2928,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="100" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G77" s="92" t="s">
         <v>1</v>
@@ -2955,18 +2924,12 @@
       <c r="A79" s="19">
         <v>1</v>
       </c>
-      <c r="B79" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="86" t="s">
-        <v>61</v>
-      </c>
+      <c r="B79" s="70"/>
+      <c r="C79" s="86"/>
       <c r="D79" s="89"/>
       <c r="E79" s="83"/>
       <c r="F79" s="68"/>
-      <c r="G79" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="G79" s="20"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="28"/>
@@ -2977,18 +2940,12 @@
         <f>A79+1</f>
         <v>2</v>
       </c>
-      <c r="B80" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="86" t="s">
-        <v>29</v>
-      </c>
+      <c r="B80" s="70"/>
+      <c r="C80" s="86"/>
       <c r="D80" s="89"/>
       <c r="E80" s="83"/>
       <c r="F80" s="68"/>
-      <c r="G80" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="G80" s="20"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="28"/>
@@ -3113,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="F90" s="100" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G90" s="102" t="s">
         <v>1</v>
@@ -3141,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C92" s="86" t="s">
         <v>34</v>
@@ -3152,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
@@ -3165,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="70" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C93" s="86" t="s">
         <v>34</v>
@@ -3174,7 +3131,7 @@
       <c r="E93" s="83"/>
       <c r="F93" s="68"/>
       <c r="G93" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>

--- a/meta/stores/SampleNoGettersStore.xlsx
+++ b/meta/stores/SampleNoGettersStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoPinia/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341B4D7-026C-7240-A7A0-D7C59328F2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533F41E9-E007-8144-B119-B87126596880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>パッケージ</t>
   </si>
@@ -673,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1207,12 +1207,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1373,72 +1445,83 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1852,8 +1935,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1927,10 +2010,10 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1942,10 +2025,10 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="108"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="82" t="s">
         <v>38</v>
       </c>
@@ -1961,11 +2044,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="65"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -2000,10 +2083,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2146,41 +2229,41 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="102" t="s">
+      <c r="G24" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="102"/>
+      <c r="H24" s="92"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
       <c r="I25" s="18"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -2448,37 +2531,37 @@
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="102" t="s">
+      <c r="D44" s="104"/>
+      <c r="E44" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="102" t="s">
+      <c r="F44" s="107"/>
+      <c r="G44" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="102"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="16"/>
       <c r="J44" s="17"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="18"/>
       <c r="J45" s="29"/>
       <c r="K45" s="15"/>
@@ -2619,37 +2702,37 @@
       <c r="K56" s="15"/>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A57" s="96" t="s">
+      <c r="A57" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="97"/>
-      <c r="E57" s="102" t="s">
+      <c r="D57" s="104"/>
+      <c r="E57" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="105"/>
-      <c r="G57" s="102" t="s">
+      <c r="F57" s="107"/>
+      <c r="G57" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="102"/>
+      <c r="H57" s="92"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="96"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="102"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
       <c r="I58" s="18"/>
       <c r="J58" s="29"/>
       <c r="K58" s="15"/>
@@ -2883,41 +2966,43 @@
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="103" t="s">
+      <c r="B77" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C77" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="105"/>
-      <c r="E77" s="100" t="s">
+      <c r="D77" s="107"/>
+      <c r="E77" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="100" t="s">
+      <c r="F77" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="G77" s="92" t="s">
+      <c r="G77" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="93"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="17"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="107"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="104"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="29"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="108"/>
       <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11">
@@ -2930,7 +3015,7 @@
       <c r="E79" s="83"/>
       <c r="F79" s="68"/>
       <c r="G79" s="20"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="116"/>
       <c r="I79" s="21"/>
       <c r="J79" s="28"/>
       <c r="K79" s="15"/>
@@ -2946,7 +3031,7 @@
       <c r="E80" s="83"/>
       <c r="F80" s="68"/>
       <c r="G80" s="20"/>
-      <c r="H80" s="21"/>
+      <c r="H80" s="116"/>
       <c r="I80" s="21"/>
       <c r="J80" s="28"/>
       <c r="K80" s="15"/>
@@ -2962,7 +3047,7 @@
       <c r="E81" s="89"/>
       <c r="F81" s="68"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
+      <c r="H81" s="116"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
       <c r="K81" s="15"/>
@@ -2978,7 +3063,7 @@
       <c r="E82" s="83"/>
       <c r="F82" s="68"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
+      <c r="H82" s="116"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="15"/>
@@ -2994,7 +3079,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="68"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="21"/>
+      <c r="H83" s="116"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="15"/>
@@ -3010,7 +3095,7 @@
       <c r="E84" s="84"/>
       <c r="F84" s="74"/>
       <c r="G84" s="73"/>
-      <c r="H84" s="75"/>
+      <c r="H84" s="117"/>
       <c r="I84" s="75"/>
       <c r="J84" s="76"/>
       <c r="K84" s="15"/>
@@ -3023,7 +3108,7 @@
       <c r="E85" s="85"/>
       <c r="F85" s="69"/>
       <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="118"/>
       <c r="I85" s="26"/>
       <c r="J85" s="27"/>
       <c r="K85" s="15"/>
@@ -3056,41 +3141,43 @@
       <c r="K89" s="15"/>
     </row>
     <row r="90" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A90" s="96" t="s">
+      <c r="A90" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="96" t="s">
+      <c r="B90" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="92" t="s">
+      <c r="C90" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="97"/>
-      <c r="E90" s="99" t="s">
+      <c r="D90" s="104"/>
+      <c r="E90" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="100" t="s">
+      <c r="F90" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="102" t="s">
+      <c r="G90" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="H90" s="102"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="17"/>
+      <c r="I90" s="109"/>
+      <c r="J90" s="107"/>
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="96"/>
-      <c r="B91" s="96"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="98"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="102"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="29"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="115"/>
+      <c r="I91" s="110"/>
+      <c r="J91" s="108"/>
       <c r="K91" s="15"/>
     </row>
     <row r="92" spans="1:11">
@@ -3108,10 +3195,10 @@
       <c r="F92" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="20"/>
+      <c r="H92" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="28"/>
       <c r="K92" s="15"/>
@@ -3131,9 +3218,11 @@
       <c r="E93" s="83"/>
       <c r="F93" s="68"/>
       <c r="G93" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="28"/>
       <c r="K93" s="15"/>
@@ -3149,7 +3238,7 @@
       <c r="E94" s="89"/>
       <c r="F94" s="68"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="21"/>
+      <c r="H94" s="116"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
       <c r="K94" s="15"/>
@@ -3165,7 +3254,7 @@
       <c r="E95" s="83"/>
       <c r="F95" s="68"/>
       <c r="G95" s="20"/>
-      <c r="H95" s="21"/>
+      <c r="H95" s="116"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
       <c r="K95" s="15"/>
@@ -3181,7 +3270,7 @@
       <c r="E96" s="83"/>
       <c r="F96" s="68"/>
       <c r="G96" s="20"/>
-      <c r="H96" s="21"/>
+      <c r="H96" s="116"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
       <c r="K96" s="15"/>
@@ -3197,7 +3286,7 @@
       <c r="E97" s="84"/>
       <c r="F97" s="74"/>
       <c r="G97" s="73"/>
-      <c r="H97" s="75"/>
+      <c r="H97" s="117"/>
       <c r="I97" s="75"/>
       <c r="J97" s="76"/>
       <c r="K97" s="15"/>
@@ -3210,13 +3299,34 @@
       <c r="E98" s="85"/>
       <c r="F98" s="69"/>
       <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
+      <c r="H98" s="118"/>
       <c r="I98" s="26"/>
       <c r="J98" s="27"/>
       <c r="K98" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:J91"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="G44:H45"/>
     <mergeCell ref="G57:H58"/>
     <mergeCell ref="A9:B9"/>
@@ -3233,25 +3343,6 @@
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:H91"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -3261,7 +3352,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:F98 F79:F85" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:G98 F79:G85" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>
